--- a/Bibsam_tidskriftslistor/scifree_data_nature.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_nature.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>2731-0582</t>
+  </si>
+  <si>
+    <t>Nature Water</t>
+  </si>
+  <si>
+    <t>Nature Mental Health</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/natwater/</t>
+  </si>
+  <si>
+    <t>2731-6084</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/natmentalhealth/</t>
+  </si>
+  <si>
+    <t>2731-6076</t>
   </si>
 </sst>
 </file>
@@ -404,9 +422,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +462,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G36"/>
-  <sortState ref="A2:G27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G38"/>
+  <sortState ref="A2:G38">
+    <sortCondition ref="D1:D38"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -724,9 +743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="A37:G38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1246,14 +1267,14 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1267,13 +1288,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1287,13 +1308,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1307,13 +1328,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1327,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1347,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1367,13 +1388,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1387,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1407,13 +1428,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1427,13 +1448,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1447,18 +1468,58 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
         <v>113</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_nature.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_nature.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E826057710E94AC9E5A1B686224C190FE5BAFB83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89164D64-E74D-49D9-A240-DAE4469E96AB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="126">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -379,22 +380,32 @@
   </si>
   <si>
     <t>2731-6076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2948-1198 </t>
+  </si>
+  <si>
+    <t>Nature Chemical Engineering</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/natchemeng/</t>
+  </si>
+  <si>
+    <t>2731-9997</t>
+  </si>
+  <si>
+    <t>Nature Cities</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/natcities/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -422,33 +433,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,19 +453,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G38"/>
-  <sortState ref="A2:G38">
-    <sortCondition ref="D1:D38"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{78817C08-B59F-4A3F-9224-A76173F606CA}" name="Table2" displayName="Table2" ref="A1:G40" totalsRowShown="0">
+  <autoFilter ref="A1:G40" xr:uid="{78817C08-B59F-4A3F-9224-A76173F606CA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{EA9EDE84-A787-4DB6-BECD-5293F71FB108}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{B0CA1636-9C1E-4198-B92C-2C6771D9E42B}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{E827DE2F-3046-416C-83BB-80DF28F95690}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{9433CDF6-F899-45D5-A3A3-1E2B8821913B}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{C7CCB4DF-77F8-4562-A379-E90A2424BAD4}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{7E94ABCF-8AF3-4961-9F62-8B7B6ECEBA8F}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{FA54435D-3717-4027-AEBD-34D64E7AB40D}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -742,44 +730,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EDEEE9-EFAA-4C02-8809-4E891D9E441E}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="A37:G38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -988,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1008,13 +996,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1028,13 +1016,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1048,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1068,13 +1056,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1088,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1108,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1128,13 +1116,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1148,13 +1136,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1168,13 +1156,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1188,13 +1176,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1208,13 +1196,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1228,13 +1216,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1248,13 +1236,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1267,14 +1255,14 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>119</v>
+      <c r="B26" t="s">
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1288,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1308,13 +1296,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1328,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1348,13 +1336,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1368,13 +1356,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1388,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1408,13 +1396,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1428,13 +1416,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1448,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1468,13 +1456,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1488,13 +1476,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1507,27 +1495,66 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>114</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>116</v>
       </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>